--- a/docss/trend/romania/E_ataxy.xlsx
+++ b/docss/trend/romania/E_ataxy.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elena\Desktop\IC3-Design\docs\trend\romania\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ELENA\Desktop\revisado\romania\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18075" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12135" windowHeight="10965" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -1696,7 +1696,7 @@
   <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="A1:D17"/>
+      <selection activeCell="B1" sqref="B1:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1720,13 +1720,13 @@
         <v>2000</v>
       </c>
       <c r="B2" s="9">
-        <v>3.3942274749279022E-2</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="C2" s="9">
-        <v>2.4080812465399504E-2</v>
+        <v>2.4E-2</v>
       </c>
       <c r="D2" s="9">
-        <v>7.881995290517807E-3</v>
+        <v>8.0000000000000002E-3</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1734,13 +1734,13 @@
         <v>2001</v>
       </c>
       <c r="B3" s="9">
-        <v>2.2142045199871063E-2</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="C3" s="9">
-        <v>2.5640859268605709E-2</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="D3" s="9">
-        <v>8.6436718702316284E-3</v>
+        <v>8.9999999999999993E-3</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1748,10 +1748,10 @@
         <v>2002</v>
       </c>
       <c r="B4" s="9">
-        <v>1.2664332520216703E-2</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="C4" s="9">
-        <v>8.3330553025007248E-3</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="D4" s="9">
         <v>0</v>
@@ -1762,13 +1762,13 @@
         <v>2003</v>
       </c>
       <c r="B5" s="9">
-        <v>1.9004703499376774E-2</v>
+        <v>1.9E-2</v>
       </c>
       <c r="C5" s="9">
-        <v>2.2151324432343245E-2</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="D5" s="9">
-        <v>8.105904795229435E-3</v>
+        <v>8.0000000000000002E-3</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1776,10 +1776,10 @@
         <v>2004</v>
       </c>
       <c r="B6" s="9">
-        <v>2.9718557372689247E-2</v>
+        <v>0.03</v>
       </c>
       <c r="C6" s="9">
-        <v>1.4775414019823074E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="D6" s="9">
         <v>0</v>
@@ -1790,13 +1790,13 @@
         <v>2005</v>
       </c>
       <c r="B7" s="9">
-        <v>1.3961885357275605E-2</v>
+        <v>1.4E-2</v>
       </c>
       <c r="C7" s="9">
         <v>0</v>
       </c>
       <c r="D7" s="9">
-        <v>6.5096961334347725E-3</v>
+        <v>7.0000000000000001E-3</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -1818,13 +1818,13 @@
         <v>2007</v>
       </c>
       <c r="B9" s="9">
-        <v>1.7040355131030083E-2</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="C9" s="9">
         <v>0</v>
       </c>
       <c r="D9" s="9">
-        <v>1.4206711668521166E-2</v>
+        <v>1.4E-2</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -1832,13 +1832,13 @@
         <v>2008</v>
       </c>
       <c r="B10" s="9">
-        <v>2.6707752142101526E-2</v>
+        <v>2.7E-2</v>
       </c>
       <c r="C10" s="9">
-        <v>9.5734484493732452E-3</v>
+        <v>0.01</v>
       </c>
       <c r="D10" s="9">
-        <v>1.280697900801897E-2</v>
+        <v>1.2999999999999999E-2</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -1846,10 +1846,10 @@
         <v>2009</v>
       </c>
       <c r="B11" s="9">
-        <v>1.3894920703023672E-2</v>
+        <v>1.4E-2</v>
       </c>
       <c r="C11" s="9">
-        <v>1.0333201847970486E-2</v>
+        <v>0.01</v>
       </c>
       <c r="D11" s="9">
         <v>0</v>
@@ -1860,13 +1860,13 @@
         <v>2010</v>
       </c>
       <c r="B12" s="9">
-        <v>1.2831142172217369E-2</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="C12" s="9">
-        <v>1.0415120050311089E-2</v>
+        <v>0.01</v>
       </c>
       <c r="D12" s="9">
-        <v>8.2897040992975235E-3</v>
+        <v>8.0000000000000002E-3</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -1874,10 +1874,10 @@
         <v>2011</v>
       </c>
       <c r="B13" s="9">
-        <v>7.3217658791691065E-3</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="C13" s="9">
-        <v>1.7464748118072748E-2</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="D13" s="9">
         <v>0</v>
@@ -1888,10 +1888,10 @@
         <v>2012</v>
       </c>
       <c r="B14" s="9">
-        <v>1.2229316867887974E-2</v>
+        <v>1.2E-2</v>
       </c>
       <c r="C14" s="9">
-        <v>1.6671315766870975E-2</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="D14" s="9">
         <v>0</v>
